--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code Projects\StudentSpace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B755EA4-9506-4E20-A0D2-2AA090A99EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7290" yWindow="1845" windowWidth="19635" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>CS001</t>
   </si>
@@ -137,23 +140,90 @@
   </si>
   <si>
     <t>vaishak@cs20</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>abhimanyu</t>
+  </si>
+  <si>
+    <t>akshara</t>
+  </si>
+  <si>
+    <t>ayona</t>
+  </si>
+  <si>
+    <t>farhan</t>
+  </si>
+  <si>
+    <t>greeshma</t>
+  </si>
+  <si>
+    <t>karishma</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>lavanya</t>
+  </si>
+  <si>
+    <t>lokesh</t>
+  </si>
+  <si>
+    <t>maneesh</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>neena</t>
+  </si>
+  <si>
+    <t>nikitha</t>
+  </si>
+  <si>
+    <t>parthiv</t>
+  </si>
+  <si>
+    <t>parvathy</t>
+  </si>
+  <si>
+    <t>prarthana</t>
+  </si>
+  <si>
+    <t>reshma</t>
+  </si>
+  <si>
+    <t>reshmi</t>
+  </si>
+  <si>
+    <t>sreerag</t>
+  </si>
+  <si>
+    <t>vaishak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -162,41 +232,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -394,21 +473,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -425,7 +504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -475,205 +554,267 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="11" width="8.71"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -744,30 +885,28 @@
     <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
-    <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" ref="B18"/>
-    <hyperlink r:id="rId18" ref="B19"/>
-    <hyperlink r:id="rId19" ref="B20"/>
-    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code Projects\StudentSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B755EA4-9506-4E20-A0D2-2AA090A99EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C5E2C-0AE3-44EF-A282-E6BE2031EFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7290" yWindow="1845" windowWidth="19635" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code Projects\StudentSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C5E2C-0AE3-44EF-A282-E6BE2031EFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD78375A-03EC-4594-A430-EC922E52F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7290" yWindow="1845" windowWidth="19635" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>CS003</t>
   </si>
   <si>
-    <t>ayona@cs03</t>
-  </si>
-  <si>
     <t>CS004</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>CS005</t>
   </si>
   <si>
-    <t>greeshma@cs05</t>
-  </si>
-  <si>
     <t>CS006</t>
   </si>
   <si>
@@ -157,15 +151,9 @@
     <t>akshara</t>
   </si>
   <si>
-    <t>ayona</t>
-  </si>
-  <si>
     <t>farhan</t>
   </si>
   <si>
-    <t>greeshma</t>
-  </si>
-  <si>
     <t>karishma</t>
   </si>
   <si>
@@ -209,13 +197,25 @@
   </si>
   <si>
     <t>vaishak</t>
+  </si>
+  <si>
+    <t>gayathri</t>
+  </si>
+  <si>
+    <t>gayathri@cs05</t>
+  </si>
+  <si>
+    <t>devika</t>
+  </si>
+  <si>
+    <t>devika@cs03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -225,6 +225,13 @@
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,14 +251,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,7 +572,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -575,13 +585,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
@@ -589,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -600,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -611,197 +621,197 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
